--- a/BLACK_SUNRISE_YCbCr/GLCM_All_Data_0_45_90_135_Degree/All_Data_0_45_90_135_Degree_n.xlsx
+++ b/BLACK_SUNRISE_YCbCr/GLCM_All_Data_0_45_90_135_Degree/All_Data_0_45_90_135_Degree_n.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -45,12 +45,16 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -331,12 +335,1271 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:CR4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="14.37890625" customWidth="true"/>
+    <col min="6" max="6" width="16.046875" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="13.7109375" customWidth="true"/>
+    <col min="10" max="10" width="13.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="13.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="14.37890625" customWidth="true"/>
+    <col min="18" max="18" width="16.046875" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="13.7109375" customWidth="true"/>
+    <col min="22" max="22" width="13.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="15.37890625" customWidth="true"/>
+    <col min="30" max="30" width="16.046875" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="15.37890625" customWidth="true"/>
+    <col min="34" max="34" width="14.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="15.37890625" customWidth="true"/>
+    <col min="42" max="42" width="16.046875" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="15.37890625" customWidth="true"/>
+    <col min="46" max="46" width="14.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="15.37890625" customWidth="true"/>
+    <col min="54" max="54" width="16.046875" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="15.37890625" customWidth="true"/>
+    <col min="58" max="58" width="13.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="15.37890625" customWidth="true"/>
+    <col min="66" max="66" width="16.046875" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
+    <col min="69" max="69" width="15.37890625" customWidth="true"/>
+    <col min="70" max="70" width="13.7109375" customWidth="true"/>
+    <col min="71" max="71" width="12.7109375" customWidth="true"/>
+    <col min="72" max="72" width="12.7109375" customWidth="true"/>
+    <col min="73" max="73" width="12.7109375" customWidth="true"/>
+    <col min="74" max="74" width="12.7109375" customWidth="true"/>
+    <col min="75" max="75" width="12.7109375" customWidth="true"/>
+    <col min="76" max="76" width="12.7109375" customWidth="true"/>
+    <col min="77" max="77" width="15.37890625" customWidth="true"/>
+    <col min="78" max="78" width="16.046875" customWidth="true"/>
+    <col min="79" max="79" width="12.7109375" customWidth="true"/>
+    <col min="80" max="80" width="12.7109375" customWidth="true"/>
+    <col min="81" max="81" width="15.37890625" customWidth="true"/>
+    <col min="82" max="82" width="14.7109375" customWidth="true"/>
+    <col min="83" max="83" width="12.7109375" customWidth="true"/>
+    <col min="84" max="84" width="12.7109375" customWidth="true"/>
+    <col min="85" max="85" width="12.7109375" customWidth="true"/>
+    <col min="86" max="86" width="12.7109375" customWidth="true"/>
+    <col min="87" max="87" width="12.7109375" customWidth="true"/>
+    <col min="88" max="88" width="12.7109375" customWidth="true"/>
+    <col min="89" max="89" width="15.37890625" customWidth="true"/>
+    <col min="90" max="90" width="16.046875" customWidth="true"/>
+    <col min="91" max="91" width="12.7109375" customWidth="true"/>
+    <col min="92" max="92" width="12.7109375" customWidth="true"/>
+    <col min="93" max="93" width="15.37890625" customWidth="true"/>
+    <col min="94" max="94" width="14.7109375" customWidth="true"/>
+    <col min="95" max="95" width="12.7109375" customWidth="true"/>
+    <col min="96" max="96" width="12.7109375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1">
+        <v>0.094470802000585302</v>
+      </c>
+      <c r="B1">
+        <v>0.83379441496124351</v>
+      </c>
+      <c r="C1">
+        <v>0.44573836649750409</v>
+      </c>
+      <c r="D1">
+        <v>0.9527940552569083</v>
+      </c>
+      <c r="E1">
+        <v>8.9433279196388326e-07</v>
+      </c>
+      <c r="F1">
+        <v>-4.471704951541251e-07</v>
+      </c>
+      <c r="G1">
+        <v>0.99999821135901079</v>
+      </c>
+      <c r="H1">
+        <v>0.99999955283360387</v>
+      </c>
+      <c r="I1">
+        <v>0.002150568979619951</v>
+      </c>
+      <c r="J1">
+        <v>0.78902308612149497</v>
+      </c>
+      <c r="K1">
+        <v>0.98329945739489477</v>
+      </c>
+      <c r="L1">
+        <v>0.99892471551018991</v>
+      </c>
+      <c r="M1">
+        <v>0.094470802000585302</v>
+      </c>
+      <c r="N1">
+        <v>0.83379441496124351</v>
+      </c>
+      <c r="O1">
+        <v>0.44573836649750409</v>
+      </c>
+      <c r="P1">
+        <v>0.9527940552569083</v>
+      </c>
+      <c r="Q1">
+        <v>8.9433279196388326e-07</v>
+      </c>
+      <c r="R1">
+        <v>-4.471704951541251e-07</v>
+      </c>
+      <c r="S1">
+        <v>0.99999821135901079</v>
+      </c>
+      <c r="T1">
+        <v>0.99999955283360387</v>
+      </c>
+      <c r="U1">
+        <v>0.002150568979619951</v>
+      </c>
+      <c r="V1">
+        <v>0.78902308612149497</v>
+      </c>
+      <c r="W1">
+        <v>0.98329945739489477</v>
+      </c>
+      <c r="X1">
+        <v>0.99892471551018991</v>
+      </c>
+      <c r="Y1">
+        <v>0.14687130995669642</v>
+      </c>
+      <c r="Z1">
+        <v>0.74102566343389398</v>
+      </c>
+      <c r="AA1">
+        <v>0.40973412475667725</v>
+      </c>
+      <c r="AB1">
+        <v>0.9269142469991013</v>
+      </c>
+      <c r="AC1">
+        <v>8.9633353646492103e-07</v>
+      </c>
+      <c r="AD1">
+        <v>-4.4817088576605898e-07</v>
+      </c>
+      <c r="AE1">
+        <v>0.99999820735763201</v>
+      </c>
+      <c r="AF1">
+        <v>0.99999955183323186</v>
+      </c>
+      <c r="AG1">
+        <v>0.0033389784627071684</v>
+      </c>
+      <c r="AH1">
+        <v>0.67740011033215974</v>
+      </c>
+      <c r="AI1">
+        <v>0.98213559108371873</v>
+      </c>
+      <c r="AJ1">
+        <v>0.99833051076864654</v>
+      </c>
+      <c r="AK1">
+        <v>0.14687130995669642</v>
+      </c>
+      <c r="AL1">
+        <v>0.74102566343389398</v>
+      </c>
+      <c r="AM1">
+        <v>0.40973412475667725</v>
+      </c>
+      <c r="AN1">
+        <v>0.9269142469991013</v>
+      </c>
+      <c r="AO1">
+        <v>8.9633353646492103e-07</v>
+      </c>
+      <c r="AP1">
+        <v>-4.4817088576605898e-07</v>
+      </c>
+      <c r="AQ1">
+        <v>0.99999820735763201</v>
+      </c>
+      <c r="AR1">
+        <v>0.99999955183323186</v>
+      </c>
+      <c r="AS1">
+        <v>0.0033389784627071684</v>
+      </c>
+      <c r="AT1">
+        <v>0.67740011033215974</v>
+      </c>
+      <c r="AU1">
+        <v>0.98213559108371873</v>
+      </c>
+      <c r="AV1">
+        <v>0.99833051076864654</v>
+      </c>
+      <c r="AW1">
+        <v>0.11137648579172527</v>
+      </c>
+      <c r="AX1">
+        <v>0.80425633001966101</v>
+      </c>
+      <c r="AY1">
+        <v>0.4338107740848885</v>
+      </c>
+      <c r="AZ1">
+        <v>0.94440721297503649</v>
+      </c>
+      <c r="BA1">
+        <v>8.9449678741478797e-07</v>
+      </c>
+      <c r="BB1">
+        <v>-4.4725249438306756e-07</v>
+      </c>
+      <c r="BC1">
+        <v>0.99999821103102893</v>
+      </c>
+      <c r="BD1">
+        <v>0.99999955275160624</v>
+      </c>
+      <c r="BE1">
+        <v>0.0022866344703822419</v>
+      </c>
+      <c r="BF1">
+        <v>0.78256866545515891</v>
+      </c>
+      <c r="BG1">
+        <v>0.98316365765991187</v>
+      </c>
+      <c r="BH1">
+        <v>0.99885668276480866</v>
+      </c>
+      <c r="BI1">
+        <v>0.11137648579172527</v>
+      </c>
+      <c r="BJ1">
+        <v>0.80425633001966101</v>
+      </c>
+      <c r="BK1">
+        <v>0.4338107740848885</v>
+      </c>
+      <c r="BL1">
+        <v>0.94440721297503649</v>
+      </c>
+      <c r="BM1">
+        <v>8.9449678741478797e-07</v>
+      </c>
+      <c r="BN1">
+        <v>-4.4725249438306756e-07</v>
+      </c>
+      <c r="BO1">
+        <v>0.99999821103102893</v>
+      </c>
+      <c r="BP1">
+        <v>0.99999955275160624</v>
+      </c>
+      <c r="BQ1">
+        <v>0.0022866344703822419</v>
+      </c>
+      <c r="BR1">
+        <v>0.78256866545515891</v>
+      </c>
+      <c r="BS1">
+        <v>0.98316365765991187</v>
+      </c>
+      <c r="BT1">
+        <v>0.99885668276480866</v>
+      </c>
+      <c r="BU1">
+        <v>0.13955050564921839</v>
+      </c>
+      <c r="BV1">
+        <v>0.75531280642549969</v>
+      </c>
+      <c r="BW1">
+        <v>0.41533777257775711</v>
+      </c>
+      <c r="BX1">
+        <v>0.93066803045491286</v>
+      </c>
+      <c r="BY1">
+        <v>8.9633353646492103e-07</v>
+      </c>
+      <c r="BZ1">
+        <v>-4.4817088576605898e-07</v>
+      </c>
+      <c r="CA1">
+        <v>0.99999820735763201</v>
+      </c>
+      <c r="CB1">
+        <v>0.99999955183323186</v>
+      </c>
+      <c r="CC1">
+        <v>0.0033200683648687869</v>
+      </c>
+      <c r="CD1">
+        <v>0.68227172274825176</v>
+      </c>
+      <c r="CE1">
+        <v>0.98215452043971463</v>
+      </c>
+      <c r="CF1">
+        <v>0.99833996581756601</v>
+      </c>
+      <c r="CG1">
+        <v>0.13955050564921839</v>
+      </c>
+      <c r="CH1">
+        <v>0.75531280642549969</v>
+      </c>
+      <c r="CI1">
+        <v>0.41533777257775711</v>
+      </c>
+      <c r="CJ1">
+        <v>0.93066803045491286</v>
+      </c>
+      <c r="CK1">
+        <v>8.9633353646492103e-07</v>
+      </c>
+      <c r="CL1">
+        <v>-4.4817088576605898e-07</v>
+      </c>
+      <c r="CM1">
+        <v>0.99999820735763201</v>
+      </c>
+      <c r="CN1">
+        <v>0.99999955183323186</v>
+      </c>
+      <c r="CO1">
+        <v>0.0033200683648687869</v>
+      </c>
+      <c r="CP1">
+        <v>0.68227172274825176</v>
+      </c>
+      <c r="CQ1">
+        <v>0.98215452043971463</v>
+      </c>
+      <c r="CR1">
+        <v>0.99833996581756601</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0.11555171144698131</v>
+      </c>
+      <c r="B2">
+        <v>0.81071122389241235</v>
+      </c>
+      <c r="C2">
+        <v>0.47404826985855941</v>
+      </c>
+      <c r="D2">
+        <v>0.94314461011958195</v>
+      </c>
+      <c r="E2">
+        <v>0.024470307139462209</v>
+      </c>
+      <c r="F2">
+        <v>0.8689555471744167</v>
+      </c>
+      <c r="G2">
+        <v>0.76293212606858096</v>
+      </c>
+      <c r="H2">
+        <v>0.98776484643026841</v>
+      </c>
+      <c r="I2">
+        <v>0.012565173732406017</v>
+      </c>
+      <c r="J2">
+        <v>0.77614611843645465</v>
+      </c>
+      <c r="K2">
+        <v>0.90995606092971815</v>
+      </c>
+      <c r="L2">
+        <v>0.99371741313379647</v>
+      </c>
+      <c r="M2">
+        <v>0.11555171144698131</v>
+      </c>
+      <c r="N2">
+        <v>0.81071122389241235</v>
+      </c>
+      <c r="O2">
+        <v>0.47404826985855941</v>
+      </c>
+      <c r="P2">
+        <v>0.94314461011958195</v>
+      </c>
+      <c r="Q2">
+        <v>0.024470307139462209</v>
+      </c>
+      <c r="R2">
+        <v>0.8689555471744167</v>
+      </c>
+      <c r="S2">
+        <v>0.76293212606858096</v>
+      </c>
+      <c r="T2">
+        <v>0.98776484643026841</v>
+      </c>
+      <c r="U2">
+        <v>0.012565173732406017</v>
+      </c>
+      <c r="V2">
+        <v>0.77614611843645465</v>
+      </c>
+      <c r="W2">
+        <v>0.90995606092971815</v>
+      </c>
+      <c r="X2">
+        <v>0.99371741313379647</v>
+      </c>
+      <c r="Y2">
+        <v>0.1672059626191966</v>
+      </c>
+      <c r="Z2">
+        <v>0.72957514470032514</v>
+      </c>
+      <c r="AA2">
+        <v>0.44564559358702027</v>
+      </c>
+      <c r="AB2">
+        <v>0.91976036384554771</v>
+      </c>
+      <c r="AC2">
+        <v>0.0363550632498622</v>
+      </c>
+      <c r="AD2">
+        <v>0.81639633278416623</v>
+      </c>
+      <c r="AE2">
+        <v>0.75258218554580913</v>
+      </c>
+      <c r="AF2">
+        <v>0.98182253089907734</v>
+      </c>
+      <c r="AG2">
+        <v>0.016398785698530656</v>
+      </c>
+      <c r="AH2">
+        <v>0.71098984960275058</v>
+      </c>
+      <c r="AI2">
+        <v>0.9066794165775941</v>
+      </c>
+      <c r="AJ2">
+        <v>0.99180060715073426</v>
+      </c>
+      <c r="AK2">
+        <v>0.1672059626191966</v>
+      </c>
+      <c r="AL2">
+        <v>0.72957514470032514</v>
+      </c>
+      <c r="AM2">
+        <v>0.44564559358702027</v>
+      </c>
+      <c r="AN2">
+        <v>0.91976036384554771</v>
+      </c>
+      <c r="AO2">
+        <v>0.0363550632498622</v>
+      </c>
+      <c r="AP2">
+        <v>0.81639633278416623</v>
+      </c>
+      <c r="AQ2">
+        <v>0.75258218554580913</v>
+      </c>
+      <c r="AR2">
+        <v>0.98182253089907734</v>
+      </c>
+      <c r="AS2">
+        <v>0.016398785698530656</v>
+      </c>
+      <c r="AT2">
+        <v>0.71098984960275058</v>
+      </c>
+      <c r="AU2">
+        <v>0.9066794165775941</v>
+      </c>
+      <c r="AV2">
+        <v>0.99180060715073426</v>
+      </c>
+      <c r="AW2">
+        <v>0.1225064784252247</v>
+      </c>
+      <c r="AX2">
+        <v>0.80164865563620591</v>
+      </c>
+      <c r="AY2">
+        <v>0.46943043337293672</v>
+      </c>
+      <c r="AZ2">
+        <v>0.93960128391099251</v>
+      </c>
+      <c r="BA2">
+        <v>0.025588061621599899</v>
+      </c>
+      <c r="BB2">
+        <v>0.87226464813884774</v>
+      </c>
+      <c r="BC2">
+        <v>0.76194385021409694</v>
+      </c>
+      <c r="BD2">
+        <v>0.98720596918920067</v>
+      </c>
+      <c r="BE2">
+        <v>0.013431548539124651</v>
+      </c>
+      <c r="BF2">
+        <v>0.79290766052212502</v>
+      </c>
+      <c r="BG2">
+        <v>0.90923410977718044</v>
+      </c>
+      <c r="BH2">
+        <v>0.99328422573043806</v>
+      </c>
+      <c r="BI2">
+        <v>0.1225064784252247</v>
+      </c>
+      <c r="BJ2">
+        <v>0.80164865563620591</v>
+      </c>
+      <c r="BK2">
+        <v>0.46943043337293672</v>
+      </c>
+      <c r="BL2">
+        <v>0.93960128391099251</v>
+      </c>
+      <c r="BM2">
+        <v>0.025588061621599899</v>
+      </c>
+      <c r="BN2">
+        <v>0.87226464813884774</v>
+      </c>
+      <c r="BO2">
+        <v>0.76194385021409694</v>
+      </c>
+      <c r="BP2">
+        <v>0.98720596918920067</v>
+      </c>
+      <c r="BQ2">
+        <v>0.013431548539124651</v>
+      </c>
+      <c r="BR2">
+        <v>0.79290766052212502</v>
+      </c>
+      <c r="BS2">
+        <v>0.90923410977718044</v>
+      </c>
+      <c r="BT2">
+        <v>0.99328422573043806</v>
+      </c>
+      <c r="BU2">
+        <v>0.16673529437726228</v>
+      </c>
+      <c r="BV2">
+        <v>0.72756596984341271</v>
+      </c>
+      <c r="BW2">
+        <v>0.44585613293969228</v>
+      </c>
+      <c r="BX2">
+        <v>0.9202757730514165</v>
+      </c>
+      <c r="BY2">
+        <v>0.035787955135766054</v>
+      </c>
+      <c r="BZ2">
+        <v>0.81820756491315516</v>
+      </c>
+      <c r="CA2">
+        <v>0.75305653479016199</v>
+      </c>
+      <c r="CB2">
+        <v>0.98210604264136148</v>
+      </c>
+      <c r="CC2">
+        <v>0.01621559688007659</v>
+      </c>
+      <c r="CD2">
+        <v>0.70547535797148631</v>
+      </c>
+      <c r="CE2">
+        <v>0.90683759203801817</v>
+      </c>
+      <c r="CF2">
+        <v>0.99189220155996227</v>
+      </c>
+      <c r="CG2">
+        <v>0.16673529437726228</v>
+      </c>
+      <c r="CH2">
+        <v>0.72756596984341271</v>
+      </c>
+      <c r="CI2">
+        <v>0.44585613293969228</v>
+      </c>
+      <c r="CJ2">
+        <v>0.9202757730514165</v>
+      </c>
+      <c r="CK2">
+        <v>0.035787955135766054</v>
+      </c>
+      <c r="CL2">
+        <v>0.81820756491315516</v>
+      </c>
+      <c r="CM2">
+        <v>0.75305653479016199</v>
+      </c>
+      <c r="CN2">
+        <v>0.98210604264136148</v>
+      </c>
+      <c r="CO2">
+        <v>0.01621559688007659</v>
+      </c>
+      <c r="CP2">
+        <v>0.70547535797148631</v>
+      </c>
+      <c r="CQ2">
+        <v>0.90683759203801817</v>
+      </c>
+      <c r="CR2">
+        <v>0.99189220155996227</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.085219197780655315</v>
+      </c>
+      <c r="B3">
+        <v>0.83127865628896425</v>
+      </c>
+      <c r="C3">
+        <v>0.52460605032315233</v>
+      </c>
+      <c r="D3">
+        <v>0.95758131062017648</v>
+      </c>
+      <c r="E3">
+        <v>4.3939805502913901e-06</v>
+      </c>
+      <c r="F3">
+        <v>0.048852441946343014</v>
+      </c>
+      <c r="G3">
+        <v>0.99999020361748359</v>
+      </c>
+      <c r="H3">
+        <v>0.99999780300972485</v>
+      </c>
+      <c r="I3">
+        <v>5.0317978000943844e-06</v>
+      </c>
+      <c r="J3">
+        <v>0.015107374114666906</v>
+      </c>
+      <c r="K3">
+        <v>0.99998846551772069</v>
+      </c>
+      <c r="L3">
+        <v>0.9999974841010999</v>
+      </c>
+      <c r="M3">
+        <v>0.085219197780655315</v>
+      </c>
+      <c r="N3">
+        <v>0.83127865628896425</v>
+      </c>
+      <c r="O3">
+        <v>0.52460605032315233</v>
+      </c>
+      <c r="P3">
+        <v>0.95758131062017648</v>
+      </c>
+      <c r="Q3">
+        <v>4.3939805502913901e-06</v>
+      </c>
+      <c r="R3">
+        <v>0.048852441946343014</v>
+      </c>
+      <c r="S3">
+        <v>0.99999020361748359</v>
+      </c>
+      <c r="T3">
+        <v>0.99999780300972485</v>
+      </c>
+      <c r="U3">
+        <v>5.0317978000943844e-06</v>
+      </c>
+      <c r="V3">
+        <v>0.015107374114666906</v>
+      </c>
+      <c r="W3">
+        <v>0.99998846551772069</v>
+      </c>
+      <c r="X3">
+        <v>0.9999974841010999</v>
+      </c>
+      <c r="Y3">
+        <v>0.13362418373886281</v>
+      </c>
+      <c r="Z3">
+        <v>0.73545162374229511</v>
+      </c>
+      <c r="AA3">
+        <v>0.49275887096164184</v>
+      </c>
+      <c r="AB3">
+        <v>0.93444496158437174</v>
+      </c>
+      <c r="AC3">
+        <v>5.0920497092609856e-06</v>
+      </c>
+      <c r="AD3">
+        <v>0.012818113317840182</v>
+      </c>
+      <c r="AE3">
+        <v>0.99998963014171371</v>
+      </c>
+      <c r="AF3">
+        <v>0.99999745397514528</v>
+      </c>
+      <c r="AG3">
+        <v>5.6306970652395629e-06</v>
+      </c>
+      <c r="AH3">
+        <v>0.0091546982343713879</v>
+      </c>
+      <c r="AI3">
+        <v>0.99998790389740055</v>
+      </c>
+      <c r="AJ3">
+        <v>0.99999718465146747</v>
+      </c>
+      <c r="AK3">
+        <v>0.13362418373886281</v>
+      </c>
+      <c r="AL3">
+        <v>0.73545162374229511</v>
+      </c>
+      <c r="AM3">
+        <v>0.49275887096164184</v>
+      </c>
+      <c r="AN3">
+        <v>0.93444496158437174</v>
+      </c>
+      <c r="AO3">
+        <v>5.0920497092609856e-06</v>
+      </c>
+      <c r="AP3">
+        <v>0.012818113317840182</v>
+      </c>
+      <c r="AQ3">
+        <v>0.99998963014171371</v>
+      </c>
+      <c r="AR3">
+        <v>0.99999745397514528</v>
+      </c>
+      <c r="AS3">
+        <v>5.6306970652395629e-06</v>
+      </c>
+      <c r="AT3">
+        <v>0.0091546982343713879</v>
+      </c>
+      <c r="AU3">
+        <v>0.99998790389740055</v>
+      </c>
+      <c r="AV3">
+        <v>0.99999718465146747</v>
+      </c>
+      <c r="AW3">
+        <v>0.1029167991486632</v>
+      </c>
+      <c r="AX3">
+        <v>0.79555023882807474</v>
+      </c>
+      <c r="AY3">
+        <v>0.51230497487119087</v>
+      </c>
+      <c r="AZ3">
+        <v>0.94885084616456083</v>
+      </c>
+      <c r="BA3">
+        <v>3.1562541967241891e-06</v>
+      </c>
+      <c r="BB3">
+        <v>0.059293439829025428</v>
+      </c>
+      <c r="BC3">
+        <v>0.99999157799237581</v>
+      </c>
+      <c r="BD3">
+        <v>0.99999842187290178</v>
+      </c>
+      <c r="BE3">
+        <v>3.8454714894925015e-06</v>
+      </c>
+      <c r="BF3">
+        <v>0.041068819732757333</v>
+      </c>
+      <c r="BG3">
+        <v>0.99998970348121086</v>
+      </c>
+      <c r="BH3">
+        <v>0.99999807726425527</v>
+      </c>
+      <c r="BI3">
+        <v>0.1029167991486632</v>
+      </c>
+      <c r="BJ3">
+        <v>0.79555023882807474</v>
+      </c>
+      <c r="BK3">
+        <v>0.51230497487119087</v>
+      </c>
+      <c r="BL3">
+        <v>0.94885084616456083</v>
+      </c>
+      <c r="BM3">
+        <v>3.1562541967241891e-06</v>
+      </c>
+      <c r="BN3">
+        <v>0.059293439829025428</v>
+      </c>
+      <c r="BO3">
+        <v>0.99999157799237581</v>
+      </c>
+      <c r="BP3">
+        <v>0.99999842187290178</v>
+      </c>
+      <c r="BQ3">
+        <v>3.8454714894925015e-06</v>
+      </c>
+      <c r="BR3">
+        <v>0.041068819732757333</v>
+      </c>
+      <c r="BS3">
+        <v>0.99998970348121086</v>
+      </c>
+      <c r="BT3">
+        <v>0.99999807726425527</v>
+      </c>
+      <c r="BU3">
+        <v>0.12780582031070431</v>
+      </c>
+      <c r="BV3">
+        <v>0.74493705035821867</v>
+      </c>
+      <c r="BW3">
+        <v>0.49613552689876605</v>
+      </c>
+      <c r="BX3">
+        <v>0.9372249500611135</v>
+      </c>
+      <c r="BY3">
+        <v>4.708752788538303e-06</v>
+      </c>
+      <c r="BZ3">
+        <v>0.017625923985628966</v>
+      </c>
+      <c r="CA3">
+        <v>0.99999015999975904</v>
+      </c>
+      <c r="CB3">
+        <v>0.9999976456236056</v>
+      </c>
+      <c r="CC3">
+        <v>5.6232221479888362e-06</v>
+      </c>
+      <c r="CD3">
+        <v>0.0075521378727238788</v>
+      </c>
+      <c r="CE3">
+        <v>0.99998791135341147</v>
+      </c>
+      <c r="CF3">
+        <v>0.99999718838892604</v>
+      </c>
+      <c r="CG3">
+        <v>0.12780582031070431</v>
+      </c>
+      <c r="CH3">
+        <v>0.74493705035821867</v>
+      </c>
+      <c r="CI3">
+        <v>0.49613552689876605</v>
+      </c>
+      <c r="CJ3">
+        <v>0.9372249500611135</v>
+      </c>
+      <c r="CK3">
+        <v>4.708752788538303e-06</v>
+      </c>
+      <c r="CL3">
+        <v>0.017625923985628966</v>
+      </c>
+      <c r="CM3">
+        <v>0.99999015999975904</v>
+      </c>
+      <c r="CN3">
+        <v>0.9999976456236056</v>
+      </c>
+      <c r="CO3">
+        <v>5.6232221479888362e-06</v>
+      </c>
+      <c r="CP3">
+        <v>0.0075521378727238788</v>
+      </c>
+      <c r="CQ3">
+        <v>0.99998791135341147</v>
+      </c>
+      <c r="CR3">
+        <v>0.99999718838892604</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.089425281739228132</v>
+      </c>
+      <c r="B4">
+        <v>0.83175599447628479</v>
+      </c>
+      <c r="C4">
+        <v>0.54198428448604918</v>
+      </c>
+      <c r="D4">
+        <v>0.95557253115887042</v>
+      </c>
+      <c r="E4">
+        <v>0.015116721971742185</v>
+      </c>
+      <c r="F4">
+        <v>0.84029536714055442</v>
+      </c>
+      <c r="G4">
+        <v>0.85785305647438281</v>
+      </c>
+      <c r="H4">
+        <v>0.99244163901412852</v>
+      </c>
+      <c r="I4">
+        <v>0.0001011707868747173</v>
+      </c>
+      <c r="J4">
+        <v>0.11668821237169331</v>
+      </c>
+      <c r="K4">
+        <v>0.99975710116201055</v>
+      </c>
+      <c r="L4">
+        <v>0.99994941460656284</v>
+      </c>
+      <c r="M4">
+        <v>0.089425281739228132</v>
+      </c>
+      <c r="N4">
+        <v>0.83175599447628479</v>
+      </c>
+      <c r="O4">
+        <v>0.54198428448604918</v>
+      </c>
+      <c r="P4">
+        <v>0.95557253115887042</v>
+      </c>
+      <c r="Q4">
+        <v>0.015116721971742185</v>
+      </c>
+      <c r="R4">
+        <v>0.84029536714055442</v>
+      </c>
+      <c r="S4">
+        <v>0.85785305647438281</v>
+      </c>
+      <c r="T4">
+        <v>0.99244163901412852</v>
+      </c>
+      <c r="U4">
+        <v>0.0001011707868747173</v>
+      </c>
+      <c r="V4">
+        <v>0.11668821237169331</v>
+      </c>
+      <c r="W4">
+        <v>0.99975710116201055</v>
+      </c>
+      <c r="X4">
+        <v>0.99994941460656284</v>
+      </c>
+      <c r="Y4">
+        <v>0.14174187829033136</v>
+      </c>
+      <c r="Z4">
+        <v>0.73913438848260482</v>
+      </c>
+      <c r="AA4">
+        <v>0.51104347967233865</v>
+      </c>
+      <c r="AB4">
+        <v>0.93133385250579259</v>
+      </c>
+      <c r="AC4">
+        <v>0.023256181381881041</v>
+      </c>
+      <c r="AD4">
+        <v>0.75906029271755515</v>
+      </c>
+      <c r="AE4">
+        <v>0.85055159846647044</v>
+      </c>
+      <c r="AF4">
+        <v>0.9883719093090596</v>
+      </c>
+      <c r="AG4">
+        <v>0.00012463785794080025</v>
+      </c>
+      <c r="AH4">
+        <v>0.042716352009359908</v>
+      </c>
+      <c r="AI4">
+        <v>0.99973386896818683</v>
+      </c>
+      <c r="AJ4">
+        <v>0.99993768107102965</v>
+      </c>
+      <c r="AK4">
+        <v>0.14174187829033136</v>
+      </c>
+      <c r="AL4">
+        <v>0.73913438848260482</v>
+      </c>
+      <c r="AM4">
+        <v>0.51104347967233865</v>
+      </c>
+      <c r="AN4">
+        <v>0.93133385250579259</v>
+      </c>
+      <c r="AO4">
+        <v>0.023256181381881041</v>
+      </c>
+      <c r="AP4">
+        <v>0.75906029271755515</v>
+      </c>
+      <c r="AQ4">
+        <v>0.85055159846647044</v>
+      </c>
+      <c r="AR4">
+        <v>0.9883719093090596</v>
+      </c>
+      <c r="AS4">
+        <v>0.00012463785794080025</v>
+      </c>
+      <c r="AT4">
+        <v>0.042716352009359908</v>
+      </c>
+      <c r="AU4">
+        <v>0.99973386896818683</v>
+      </c>
+      <c r="AV4">
+        <v>0.99993768107102965</v>
+      </c>
+      <c r="AW4">
+        <v>0.10663255400338542</v>
+      </c>
+      <c r="AX4">
+        <v>0.80374149825394181</v>
+      </c>
+      <c r="AY4">
+        <v>0.53121709431338682</v>
+      </c>
+      <c r="AZ4">
+        <v>0.94726479520809215</v>
+      </c>
+      <c r="BA4">
+        <v>0.01631483890014436</v>
+      </c>
+      <c r="BB4">
+        <v>0.82780871891093211</v>
+      </c>
+      <c r="BC4">
+        <v>0.856789124601265</v>
+      </c>
+      <c r="BD4">
+        <v>0.99184258054992769</v>
+      </c>
+      <c r="BE4">
+        <v>0.0001094950563465841</v>
+      </c>
+      <c r="BF4">
+        <v>0.083081293384330096</v>
+      </c>
+      <c r="BG4">
+        <v>0.99974884353887561</v>
+      </c>
+      <c r="BH4">
+        <v>0.99994525247182686</v>
+      </c>
+      <c r="BI4">
+        <v>0.10663255400338542</v>
+      </c>
+      <c r="BJ4">
+        <v>0.80374149825394181</v>
+      </c>
+      <c r="BK4">
+        <v>0.53121709431338682</v>
+      </c>
+      <c r="BL4">
+        <v>0.94726479520809215</v>
+      </c>
+      <c r="BM4">
+        <v>0.01631483890014436</v>
+      </c>
+      <c r="BN4">
+        <v>0.82780871891093211</v>
+      </c>
+      <c r="BO4">
+        <v>0.856789124601265</v>
+      </c>
+      <c r="BP4">
+        <v>0.99184258054992769</v>
+      </c>
+      <c r="BQ4">
+        <v>0.0001094950563465841</v>
+      </c>
+      <c r="BR4">
+        <v>0.083081293384330096</v>
+      </c>
+      <c r="BS4">
+        <v>0.99974884353887561</v>
+      </c>
+      <c r="BT4">
+        <v>0.99994525247182686</v>
+      </c>
+      <c r="BU4">
+        <v>0.13192664985027372</v>
+      </c>
+      <c r="BV4">
+        <v>0.75262010254367195</v>
+      </c>
+      <c r="BW4">
+        <v>0.51576631572012699</v>
+      </c>
+      <c r="BX4">
+        <v>0.9355779216272152</v>
+      </c>
+      <c r="BY4">
+        <v>0.021906123954479547</v>
+      </c>
+      <c r="BZ4">
+        <v>0.76627902651746826</v>
+      </c>
+      <c r="CA4">
+        <v>0.85171344241441294</v>
+      </c>
+      <c r="CB4">
+        <v>0.98904699137267782</v>
+      </c>
+      <c r="CC4">
+        <v>0.00011889488506430759</v>
+      </c>
+      <c r="CD4">
+        <v>0.048421997987817357</v>
+      </c>
+      <c r="CE4">
+        <v>0.99973957505601796</v>
+      </c>
+      <c r="CF4">
+        <v>0.99994055255746805</v>
+      </c>
+      <c r="CG4">
+        <v>0.13192664985027372</v>
+      </c>
+      <c r="CH4">
+        <v>0.75262010254367195</v>
+      </c>
+      <c r="CI4">
+        <v>0.51576631572012699</v>
+      </c>
+      <c r="CJ4">
+        <v>0.9355779216272152</v>
+      </c>
+      <c r="CK4">
+        <v>0.021906123954479547</v>
+      </c>
+      <c r="CL4">
+        <v>0.76627902651746826</v>
+      </c>
+      <c r="CM4">
+        <v>0.85171344241441294</v>
+      </c>
+      <c r="CN4">
+        <v>0.98904699137267782</v>
+      </c>
+      <c r="CO4">
+        <v>0.00011889488506430759</v>
+      </c>
+      <c r="CP4">
+        <v>0.048421997987817357</v>
+      </c>
+      <c r="CQ4">
+        <v>0.99973957505601796</v>
+      </c>
+      <c r="CR4">
+        <v>0.99994055255746805</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>